--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F08687C-EAC6-4AD3-BFB0-864B96821392}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6DBA2-C211-4954-8777-8D05C304D0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>toy_war_secret_of_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>will_of_the_four_guardians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四神獸之意志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,15 +436,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -512,6 +520,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6DBA2-C211-4954-8777-8D05C304D0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDECF9CC-4FCC-4B7C-86EA-056880C4278F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>四神獸之意志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blessing_of_the_four_guardians</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -436,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -528,6 +532,14 @@
         <v>19</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDECF9CC-4FCC-4B7C-86EA-056880C4278F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FFB02-F342-47E6-B020-35750891DE25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>blessing_of_the_four_guardians</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月新娘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>may_bride</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四神獸之庇護</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -537,7 +549,15 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20408"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011FFB02-F342-47E6-B020-35750891DE25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA62B7-3D90-446F-B263-CAA84977AC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,6 +114,14 @@
   </si>
   <si>
     <t>四神獸之庇護</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pink_blessing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅祝福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -560,6 +568,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77BA62B7-3D90-446F-B263-CAA84977AC3A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F382A0E-B8C1-45DC-86DF-3D35BFB4D171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,14 @@
   </si>
   <si>
     <t>粉紅祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toy_adventure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具大冒險</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -576,6 +584,14 @@
         <v>25</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F382A0E-B8C1-45DC-86DF-3D35BFB4D171}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C5D3B-F570-4B3C-BDF1-32CF4B64E7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,14 @@
   </si>
   <si>
     <t>玩具大冒險</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toy_stories</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩具物語</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -592,6 +600,14 @@
         <v>27</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096C5D3B-F570-4B3C-BDF1-32CF4B64E7A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CE875-1978-421D-B6F3-1AA78DF5B0F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,14 @@
   </si>
   <si>
     <t>玩具物語</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星際爭霸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>star_combat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -608,6 +616,14 @@
         <v>29</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36CE875-1978-421D-B6F3-1AA78DF5B0F2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5382F-C336-4C01-93CE-AFFE88328510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>star_combat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cooking_camp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烹飪露營</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇宙戰爭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>space_war</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,19 +500,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="32" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -512,7 +529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -520,7 +537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -528,7 +545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -536,7 +553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -544,7 +561,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -552,7 +569,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -560,7 +577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -568,7 +585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -576,7 +593,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -584,7 +601,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -592,7 +609,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -600,7 +617,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -608,7 +625,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -616,12 +633,28 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/GOD.xlsx
+++ b/GOD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20410"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F5382F-C336-4C01-93CE-AFFE88328510}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D85253-DE2E-449A-A456-0D48ADA49405}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>angry_ghost</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,14 @@
   </si>
   <si>
     <t>space_war</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噹!噹!噹!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pow_pow_pow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -657,6 +665,14 @@
         <v>33</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
